--- a/biology/Zoologie/Aaadonta_angaurana/Aaadonta_angaurana.xlsx
+++ b/biology/Zoologie/Aaadonta_angaurana/Aaadonta_angaurana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaadonta angaurana est une espèce de mollusques gastéropodes terrestres de la famille des Endodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d’Angaur dans les îles Palaos[1],[2]. Elle n’est connue que d’une seule localité, où elle a été trouvée pour la dernière fois en 1936. Aucun autre spécimen n’a été trouvé récemment et cette espèce pourrait être éteinte[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d’Angaur dans les îles Palaos,. Elle n’est connue que d’une seule localité, où elle a été trouvée pour la dernière fois en 1936. Aucun autre spécimen n’a été trouvé récemment et cette espèce pourrait être éteinte.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aaadonta angaurana présente un diamètre variant de 3,58 à 4,21 mm avec une valeur moyenne de 3,92 mm[4]. L'holotype a été prélevé par Kiyoko Kondo et Yoshio Kondo (d) le 18 avril 1936[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaadonta angaurana présente un diamètre variant de 3,58 à 4,21 mm avec une valeur moyenne de 3,92 mm. L'holotype a été prélevé par Kiyoko Kondo et Yoshio Kondo (d) le 18 avril 1936.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aaadonta angaurana Solem, 1976[5],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aaadonta angaurana Solem, 1976,.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Alan Solem, Endodontoid land snails from Pacific Islands (Mollusca : Pulmonata : Sigmurethra). Part I, Family Endodontidae, Chicago, Field Museum of Natural History, 1976, 540 p. (OCLC 30717826, DOI 10.5962/BHL.TITLE.2554, lire en ligne)</t>
         </is>
